--- a/Supplementary_Information/Supplementary Data 2.xlsx
+++ b/Supplementary_Information/Supplementary Data 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehukim/Documents/Research/Progress/DDI_Paxlovid/220109/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehukim/Documents/Research/Progress/Paxlovid/Manuscript/220213_To Prof/Supplementary Information/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F321E62-D127-7047-969A-D9749B15CE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD36105A-BEEA-8540-A144-89BDCF217933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset S2" sheetId="1" r:id="rId1"/>
@@ -370,7 +370,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Supplementary Data 2. Descriptions of 113 DDI types that can be predicted by DeepDDI.</t>
+    <t>Supplementary Data 2. Descriptions of 113 DDI types that can be predicted by DeepDDI2.</t>
   </si>
 </sst>
 </file>
@@ -787,7 +787,7 @@
   <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
